--- a/full/sliding_window_results_window_8.xlsx
+++ b/full/sliding_window_results_window_8.xlsx
@@ -468,13 +468,13 @@
         <v>32.28</v>
       </c>
       <c r="C2" t="n">
-        <v>33.45676067350485</v>
+        <v>33.38830489975777</v>
       </c>
       <c r="D2" t="n">
-        <v>1.176760673504852</v>
+        <v>1.108304899757769</v>
       </c>
       <c r="E2" t="n">
-        <v>1.384765682707592</v>
+        <v>1.228339750827079</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>33.1</v>
       </c>
       <c r="C3" t="n">
-        <v>34.10853414933365</v>
+        <v>34.12433976721346</v>
       </c>
       <c r="D3" t="n">
-        <v>1.008534149333649</v>
+        <v>1.024339767213455</v>
       </c>
       <c r="E3" t="n">
-        <v>1.017141130372146</v>
+        <v>1.049271958694915</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>34.4</v>
       </c>
       <c r="C4" t="n">
-        <v>35.55193809445004</v>
+        <v>35.54402174103032</v>
       </c>
       <c r="D4" t="n">
-        <v>1.151938094450038</v>
+        <v>1.144021741030322</v>
       </c>
       <c r="E4" t="n">
-        <v>1.326961373445185</v>
+        <v>1.308785743950049</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>36.3</v>
       </c>
       <c r="C5" t="n">
-        <v>38.26371309621533</v>
+        <v>38.17044051890333</v>
       </c>
       <c r="D5" t="n">
-        <v>1.963713096215336</v>
+        <v>1.870440518903337</v>
       </c>
       <c r="E5" t="n">
-        <v>3.856169124247623</v>
+        <v>3.498547734755383</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>38.5</v>
       </c>
       <c r="C6" t="n">
-        <v>39.23114999866959</v>
+        <v>39.10098256504567</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7311499986695864</v>
+        <v>0.600982565045669</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5345803205545362</v>
+        <v>0.3611800434888718</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>40.1</v>
       </c>
       <c r="C7" t="n">
-        <v>40.79762119398801</v>
+        <v>40.72232712674924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.697621193988013</v>
+        <v>0.6223271267492336</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4866753303012609</v>
+        <v>0.3872910526879567</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>41.5</v>
       </c>
       <c r="C8" t="n">
-        <v>42.99285994555458</v>
+        <v>42.89888875854535</v>
       </c>
       <c r="D8" t="n">
-        <v>1.492859945554578</v>
+        <v>1.398888758545354</v>
       </c>
       <c r="E8" t="n">
-        <v>2.228630817041217</v>
+        <v>1.956889758784562</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>43.7</v>
       </c>
       <c r="C9" t="n">
-        <v>46.7483229543626</v>
+        <v>46.51814238619718</v>
       </c>
       <c r="D9" t="n">
-        <v>3.048322954362597</v>
+        <v>2.818142386197181</v>
       </c>
       <c r="E9" t="n">
-        <v>9.292272834093909</v>
+        <v>7.94192650888114</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>48.1</v>
       </c>
       <c r="C10" t="n">
-        <v>49.37484353125579</v>
+        <v>49.50489791774555</v>
       </c>
       <c r="D10" t="n">
-        <v>1.27484353125579</v>
+        <v>1.404897917745551</v>
       </c>
       <c r="E10" t="n">
-        <v>1.625226029184733</v>
+        <v>1.973738159285784</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>55.08027577408184</v>
+        <v>54.97935012587013</v>
       </c>
       <c r="D11" t="n">
-        <v>2.080275774081841</v>
+        <v>1.979350125870127</v>
       </c>
       <c r="E11" t="n">
-        <v>4.327547296231802</v>
+        <v>3.917826920782087</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>56.1</v>
       </c>
       <c r="C12" t="n">
-        <v>58.51397007008978</v>
+        <v>58.44664732708007</v>
       </c>
       <c r="D12" t="n">
-        <v>2.413970070089782</v>
+        <v>2.346647327080071</v>
       </c>
       <c r="E12" t="n">
-        <v>5.827251499289266</v>
+        <v>5.506753677692039</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>60</v>
       </c>
       <c r="C13" t="n">
-        <v>62.43430657750985</v>
+        <v>62.43486695348334</v>
       </c>
       <c r="D13" t="n">
-        <v>2.434306577509851</v>
+        <v>2.434866953483336</v>
       </c>
       <c r="E13" t="n">
-        <v>5.925848513307724</v>
+        <v>5.928577081165223</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>63.9</v>
       </c>
       <c r="C14" t="n">
-        <v>66.39840085435448</v>
+        <v>66.32689223357512</v>
       </c>
       <c r="D14" t="n">
-        <v>2.498400854354479</v>
+        <v>2.426892233575124</v>
       </c>
       <c r="E14" t="n">
-        <v>6.24200682903919</v>
+        <v>5.889805913387255</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>74.38044220458511</v>
+        <v>74.35058830491933</v>
       </c>
       <c r="D15" t="n">
-        <v>3.780442204585114</v>
+        <v>3.750588304919333</v>
       </c>
       <c r="E15" t="n">
-        <v>14.29174326220836</v>
+        <v>14.06691263299768</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>85.2337052531834</v>
+        <v>85.15917246236329</v>
       </c>
       <c r="D16" t="n">
-        <v>4.333705253183396</v>
+        <v>4.259172462363281</v>
       </c>
       <c r="E16" t="n">
-        <v>18.78100122146936</v>
+        <v>18.1405500641537</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>93.67491552876446</v>
+        <v>93.56784290055894</v>
       </c>
       <c r="D17" t="n">
-        <v>4.574915528764464</v>
+        <v>4.467842900558949</v>
       </c>
       <c r="E17" t="n">
-        <v>20.92985209533024</v>
+        <v>19.96162018407501</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>95</v>
       </c>
       <c r="C18" t="n">
-        <v>99.21655919297439</v>
+        <v>99.11000277663616</v>
       </c>
       <c r="D18" t="n">
-        <v>4.216559192974387</v>
+        <v>4.110002776636165</v>
       </c>
       <c r="E18" t="n">
-        <v>17.77937142785681</v>
+        <v>16.89212282395698</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>98.8</v>
       </c>
       <c r="C19" t="n">
-        <v>102.9335988847508</v>
+        <v>102.9879993325201</v>
       </c>
       <c r="D19" t="n">
-        <v>4.13359888475081</v>
+        <v>4.187999332520064</v>
       </c>
       <c r="E19" t="n">
-        <v>17.08663974001314</v>
+        <v>17.53933840918851</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>103.3</v>
       </c>
       <c r="C20" t="n">
-        <v>106.8194193714945</v>
+        <v>106.7092491344351</v>
       </c>
       <c r="D20" t="n">
-        <v>3.51941937149455</v>
+        <v>3.409249134435115</v>
       </c>
       <c r="E20" t="n">
-        <v>12.38631271245109</v>
+        <v>11.62297966064658</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>107</v>
       </c>
       <c r="C21" t="n">
-        <v>110.3277433064322</v>
+        <v>110.2151554997469</v>
       </c>
       <c r="D21" t="n">
-        <v>3.327743306432211</v>
+        <v>3.215155499746913</v>
       </c>
       <c r="E21" t="n">
-        <v>11.07387551350438</v>
+        <v>10.33722488755282</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>49.85908065555532</v>
+        <v>48.58011273237635</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>156.4038727526496</v>
+        <v>149.5096829669536</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>7.82019363763248</v>
+        <v>7.475484148347681</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_8.xlsx
+++ b/full/sliding_window_results_window_8.xlsx
@@ -468,13 +468,13 @@
         <v>29.84</v>
       </c>
       <c r="C2" t="n">
-        <v>30.46084261169721</v>
+        <v>29.50128534542506</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6208426116972099</v>
+        <v>-0.3387146545749395</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3854455484990125</v>
+        <v>0.1147276172238206</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>30.3136293851742</v>
+        <v>29.72259393625888</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5036293851742037</v>
+        <v>-0.08740606374112048</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2536425576109465</v>
+        <v>0.007639819978716816</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.92</v>
       </c>
       <c r="C4" t="n">
-        <v>30.13339726642423</v>
+        <v>30.18642443566212</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2133972664242272</v>
+        <v>0.2664244356621168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0455383933173326</v>
+        <v>0.07098197991787743</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.98</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5414924624566</v>
+        <v>29.7076232420457</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4385075375434049</v>
+        <v>-0.272376757954305</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1922888604823806</v>
+        <v>0.07418909827369807</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.04</v>
       </c>
       <c r="C6" t="n">
-        <v>29.84185823490394</v>
+        <v>29.72710782357337</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1981417650960573</v>
+        <v>-0.312892176426633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03926015907538115</v>
+        <v>0.09790151406899525</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.21</v>
       </c>
       <c r="C7" t="n">
-        <v>29.47979166439584</v>
+        <v>29.46802337815439</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.7302083356041607</v>
+        <v>-0.741976621845609</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5332042133857985</v>
+        <v>0.5505293073654218</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.22</v>
       </c>
       <c r="C8" t="n">
-        <v>29.87264849526314</v>
+        <v>29.37873299744113</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3473515047368636</v>
+        <v>-0.8412670025588724</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1206530678429634</v>
+        <v>0.7077301695943898</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.38</v>
       </c>
       <c r="C9" t="n">
-        <v>29.77935073574157</v>
+        <v>29.97453232663057</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6006492642584327</v>
+        <v>-0.4054676733694258</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3607795386541965</v>
+        <v>0.1644040341476154</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.44</v>
       </c>
       <c r="C10" t="n">
-        <v>30.44265920206595</v>
+        <v>30.16820205594819</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002659202065945721</v>
+        <v>-0.2717979440518121</v>
       </c>
       <c r="E10" t="n">
-        <v>7.071355627529988e-06</v>
+        <v>0.073874122390792</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.48</v>
       </c>
       <c r="C11" t="n">
-        <v>30.30459967519557</v>
+        <v>30.30205841598819</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.175400324804432</v>
+        <v>-0.1779415840118119</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03076527394150025</v>
+        <v>0.03166320732063272</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.69</v>
       </c>
       <c r="C12" t="n">
-        <v>30.50290512388348</v>
+        <v>30.92585986026115</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1870948761165252</v>
+        <v>0.2358598602611508</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03500449266905791</v>
+        <v>0.05562987368240958</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.75</v>
       </c>
       <c r="C13" t="n">
-        <v>30.21830799828945</v>
+        <v>30.68201219889807</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5316920017105531</v>
+        <v>-0.06798780110193192</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2826963846829748</v>
+        <v>0.004622341098675855</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.94</v>
       </c>
       <c r="C14" t="n">
-        <v>30.59245223777145</v>
+        <v>31.4800043214025</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3475477622285545</v>
+        <v>0.540004321402499</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1207894470300759</v>
+        <v>0.2916046671333734</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.95</v>
       </c>
       <c r="C15" t="n">
-        <v>30.80364098242264</v>
+        <v>31.10581343353556</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1463590175773639</v>
+        <v>0.1558134335355561</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02142096202621112</v>
+        <v>0.02427782607013916</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.02</v>
       </c>
       <c r="C16" t="n">
-        <v>31.36656043165091</v>
+        <v>31.48388074484767</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3465604316509072</v>
+        <v>0.4638807448476712</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1201041327860631</v>
+        <v>0.2151853454404302</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.12</v>
       </c>
       <c r="C17" t="n">
-        <v>31.68489189263112</v>
+        <v>31.640887792942</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5648918926311168</v>
+        <v>0.5208877929419984</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3191028503603652</v>
+        <v>0.2713240928359862</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.28</v>
       </c>
       <c r="C18" t="n">
-        <v>31.75686389033347</v>
+        <v>32.12551089741401</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4768638903334725</v>
+        <v>0.8455108974140089</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2273991699039741</v>
+        <v>0.7148886776458426</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.38</v>
       </c>
       <c r="C19" t="n">
-        <v>31.45407467582688</v>
+        <v>31.70430067352617</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07407467582687843</v>
+        <v>0.3243006735261744</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005487057598857128</v>
+        <v>0.1051709268495304</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.58</v>
       </c>
       <c r="C20" t="n">
-        <v>31.8120608275237</v>
+        <v>32.01831504160815</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2320608275236999</v>
+        <v>0.4383150416081492</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05385222767098441</v>
+        <v>0.1921200756999535</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.65</v>
       </c>
       <c r="C21" t="n">
-        <v>31.76596772281332</v>
+        <v>31.6557620332591</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1159677228133233</v>
+        <v>0.005762033259099297</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0134485127345078</v>
+        <v>3.320102727896647e-05</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.88</v>
       </c>
       <c r="C22" t="n">
-        <v>32.43375460424933</v>
+        <v>32.55625313419729</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5537546042493311</v>
+        <v>0.6762531341972924</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3066441617273333</v>
+        <v>0.4573183015116611</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.27985246042758</v>
+        <v>32.54997491613913</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.000147539572417088</v>
+        <v>0.2699749161391267</v>
       </c>
       <c r="E23" t="n">
-        <v>2.176792542901716e-08</v>
+        <v>0.0728864553443285</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.45</v>
       </c>
       <c r="C24" t="n">
-        <v>32.39661297351034</v>
+        <v>32.25129507345323</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.05338702648966631</v>
+        <v>-0.1987049265467746</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002850174597408332</v>
+        <v>0.0394836478339591</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.85</v>
       </c>
       <c r="C25" t="n">
-        <v>32.67578202833903</v>
+        <v>33.63366098406425</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1742179716609726</v>
+        <v>0.7836609840642481</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03035190164966347</v>
+        <v>0.6141245379445457</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.9</v>
       </c>
       <c r="C26" t="n">
-        <v>32.81481145591957</v>
+        <v>32.68773393513963</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.08518854408042387</v>
+        <v>-0.2122660648603656</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00725708804254232</v>
+        <v>0.04505688229130493</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.1</v>
       </c>
       <c r="C27" t="n">
-        <v>33.16627362188297</v>
+        <v>32.92426366070559</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0662736218829636</v>
+        <v>-0.17573633929441</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004392192957486031</v>
+        <v>0.0308832609486</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.4</v>
       </c>
       <c r="C28" t="n">
-        <v>33.80167156610683</v>
+        <v>33.38485988760078</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4016715661068275</v>
+        <v>-0.01514011239921587</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1613400470187115</v>
+        <v>0.00022922300346089</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.7</v>
       </c>
       <c r="C29" t="n">
-        <v>33.8928305017434</v>
+        <v>33.76704250188487</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1928305017434013</v>
+        <v>0.06704250188487038</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03718360240261191</v>
+        <v>0.004494697058982848</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.1</v>
       </c>
       <c r="C30" t="n">
-        <v>33.97715446023061</v>
+        <v>34.42621061011622</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1228455397693935</v>
+        <v>0.3262106101162203</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01509102664123364</v>
+        <v>0.1064133621523967</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.4</v>
       </c>
       <c r="C31" t="n">
-        <v>34.28860731142814</v>
+        <v>34.48575269814877</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1113926885718541</v>
+        <v>0.08575269814877373</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01240833106726608</v>
+        <v>0.007353525239794702</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.9</v>
       </c>
       <c r="C32" t="n">
-        <v>34.58950825248252</v>
+        <v>35.01197026628174</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3104917475174815</v>
+        <v>0.1119702662817446</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0964051252764595</v>
+        <v>0.01253734053120478</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.3</v>
       </c>
       <c r="C33" t="n">
-        <v>35.42654727823895</v>
+        <v>35.0747884907683</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1265472782389523</v>
+        <v>-0.2252115092316984</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01601421362968681</v>
+        <v>0.05072022389041938</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.7</v>
       </c>
       <c r="C34" t="n">
-        <v>35.8361645363849</v>
+        <v>35.43834716810733</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1361645363848965</v>
+        <v>-0.2616528318926683</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01854078096891379</v>
+        <v>0.06846220443745293</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.3</v>
       </c>
       <c r="C35" t="n">
-        <v>36.03483059126058</v>
+        <v>35.65069800646503</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2651694087394176</v>
+        <v>-0.6493019935349693</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07031481533121234</v>
+        <v>0.4215930788084853</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.8</v>
       </c>
       <c r="C36" t="n">
-        <v>36.94288902953851</v>
+        <v>36.08379325786624</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1428890295385159</v>
+        <v>-0.7162067421337568</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02041727476245887</v>
+        <v>0.5129520974778496</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.98994414241223</v>
+        <v>36.82042427363491</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3100558575877699</v>
+        <v>-0.4795757263650913</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09613463482448743</v>
+        <v>0.2299928773186049</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.9</v>
       </c>
       <c r="C38" t="n">
-        <v>37.91515213975342</v>
+        <v>38.2022152009615</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01515213975342533</v>
+        <v>0.3022152009615056</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0002295873391073323</v>
+        <v>0.0913340276922032</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.5</v>
       </c>
       <c r="C39" t="n">
-        <v>38.53633178318749</v>
+        <v>38.54488735553488</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0363317831874852</v>
+        <v>0.04488735553487544</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001319998469582432</v>
+        <v>0.002014874686914313</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.9</v>
       </c>
       <c r="C40" t="n">
-        <v>38.91602012685559</v>
+        <v>38.9232925618563</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01602012685558662</v>
+        <v>0.02329256185630157</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0002566444644690878</v>
+        <v>0.0005425434378296351</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.4</v>
       </c>
       <c r="C41" t="n">
-        <v>39.31561336749532</v>
+        <v>39.18492527594462</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.08438663250468181</v>
+        <v>-0.215074724055377</v>
       </c>
       <c r="E41" t="n">
-        <v>0.007121103745480221</v>
+        <v>0.04625713692749655</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.9</v>
       </c>
       <c r="C42" t="n">
-        <v>39.60958554336428</v>
+        <v>40.48918849674822</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2904144566357161</v>
+        <v>0.5891884967482213</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08434055662301822</v>
+        <v>0.3471430847004288</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.1</v>
       </c>
       <c r="C43" t="n">
-        <v>39.71877382572521</v>
+        <v>40.07497914666638</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3812261742747864</v>
+        <v>-0.02502085333362203</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1453333959521899</v>
+        <v>0.0006260431015426245</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.6</v>
       </c>
       <c r="C44" t="n">
-        <v>39.85890062012768</v>
+        <v>41.00696585928799</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.7410993798723169</v>
+        <v>0.4069658592879861</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5492282908471326</v>
+        <v>0.1656212106260089</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.9</v>
       </c>
       <c r="C45" t="n">
-        <v>40.13962008394929</v>
+        <v>41.00589054627245</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7603799160507094</v>
+        <v>0.1058905462724482</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5781776167332839</v>
+        <v>0.01121280778987749</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.2</v>
       </c>
       <c r="C46" t="n">
-        <v>41.00237829539187</v>
+        <v>41.96942117783217</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1976217046081317</v>
+        <v>0.7694211778321716</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03905433813222365</v>
+        <v>0.5920089488966461</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.5</v>
       </c>
       <c r="C47" t="n">
-        <v>41.19383041310699</v>
+        <v>41.29084426028793</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.306169586893013</v>
+        <v>-0.2091557397120667</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09373981593823823</v>
+        <v>0.04374612345450179</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.8</v>
       </c>
       <c r="C48" t="n">
-        <v>41.77428316239367</v>
+        <v>41.11297919396689</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.02571683760633192</v>
+        <v>-0.6870208060331038</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0006613557364704477</v>
+        <v>0.4719975879223756</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.2</v>
       </c>
       <c r="C49" t="n">
-        <v>42.15662985333856</v>
+        <v>42.04974543499112</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.04337014666144512</v>
+        <v>-0.1502545650088862</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001880969621435259</v>
+        <v>0.02257643430600962</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.11398189751841</v>
+        <v>42.78179685459305</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4139818975184042</v>
+        <v>0.08179685459304409</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1713810114729385</v>
+        <v>0.006690725421315598</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>43.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.64995434627891</v>
+        <v>43.32596037961508</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.05004565372109226</v>
+        <v>-0.3740396203849272</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002504567456371476</v>
+        <v>0.1399056376177005</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-2.763714210893195</v>
+        <v>0.3290915639538596</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>5.731464566825553</v>
+        <v>8.384676800139479</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1146292913365111</v>
+        <v>0.1676935360027896</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_8.xlsx
+++ b/full/sliding_window_results_window_8.xlsx
@@ -468,13 +468,13 @@
         <v>29.84</v>
       </c>
       <c r="C2" t="n">
-        <v>29.50128534542506</v>
+        <v>29.19813275579176</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3387146545749395</v>
+        <v>-0.6418672442082389</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1147276172238206</v>
+        <v>0.411993559187479</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>29.72259393625888</v>
+        <v>29.79716873044151</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.08740606374112048</v>
+        <v>-0.01283126955848957</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007639819978716816</v>
+        <v>0.000164641478482621</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.92</v>
       </c>
       <c r="C4" t="n">
-        <v>30.18642443566212</v>
+        <v>30.5286003266526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2664244356621168</v>
+        <v>0.6086003266525957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07098197991787743</v>
+        <v>0.3703943576016461</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.98</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7076232420457</v>
+        <v>29.93516772358164</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.272376757954305</v>
+        <v>-0.04483227641836152</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07418909827369807</v>
+        <v>0.002009933008852374</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.04</v>
       </c>
       <c r="C6" t="n">
-        <v>29.72710782357337</v>
+        <v>29.71694036692574</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.312892176426633</v>
+        <v>-0.3230596330742621</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09790151406899525</v>
+        <v>0.1043675265220769</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.21</v>
       </c>
       <c r="C7" t="n">
-        <v>29.46802337815439</v>
+        <v>29.21751383698431</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.741976621845609</v>
+        <v>-0.9924861630156876</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5505293073654218</v>
+        <v>0.9850287837776021</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.22</v>
       </c>
       <c r="C8" t="n">
-        <v>29.37873299744113</v>
+        <v>29.3241240967751</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8412670025588724</v>
+        <v>-0.8958759032249013</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7077301695943898</v>
+        <v>0.8025936339790327</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.38</v>
       </c>
       <c r="C9" t="n">
-        <v>29.97453232663057</v>
+        <v>29.85475453419238</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4054676733694258</v>
+        <v>-0.5252454658076218</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1644040341476154</v>
+        <v>0.2758827993514656</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.44</v>
       </c>
       <c r="C10" t="n">
-        <v>30.16820205594819</v>
+        <v>30.04723838338844</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2717979440518121</v>
+        <v>-0.3927616166115584</v>
       </c>
       <c r="E10" t="n">
-        <v>0.073874122390792</v>
+        <v>0.1542616874833248</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.48</v>
       </c>
       <c r="C11" t="n">
-        <v>30.30205841598819</v>
+        <v>30.35467439870513</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1779415840118119</v>
+        <v>-0.1253256012948682</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03166320732063272</v>
+        <v>0.01570650633992028</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.69</v>
       </c>
       <c r="C12" t="n">
-        <v>30.92585986026115</v>
+        <v>30.77233615750361</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2358598602611508</v>
+        <v>0.08233615750361167</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05562987368240958</v>
+        <v>0.006779242832459549</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.75</v>
       </c>
       <c r="C13" t="n">
-        <v>30.68201219889807</v>
+        <v>30.79093178361333</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.06798780110193192</v>
+        <v>0.04093178361332761</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004622341098675855</v>
+        <v>0.001675410909768275</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.94</v>
       </c>
       <c r="C14" t="n">
-        <v>31.4800043214025</v>
+        <v>31.42058431744694</v>
       </c>
       <c r="D14" t="n">
-        <v>0.540004321402499</v>
+        <v>0.4805843174469402</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2916046671333734</v>
+        <v>0.2309612861759414</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.95</v>
       </c>
       <c r="C15" t="n">
-        <v>31.10581343353556</v>
+        <v>30.76915338057381</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1558134335355561</v>
+        <v>-0.1808466194261911</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02427782607013916</v>
+        <v>0.03270549975788159</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.02</v>
       </c>
       <c r="C16" t="n">
-        <v>31.48388074484767</v>
+        <v>31.4873906887731</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4638807448476712</v>
+        <v>0.4673906887731043</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2151853454404302</v>
+        <v>0.2184540559517968</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.12</v>
       </c>
       <c r="C17" t="n">
-        <v>31.640887792942</v>
+        <v>31.52197990811406</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5208877929419984</v>
+        <v>0.4019799081140576</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2713240928359862</v>
+        <v>0.1615878465273862</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.28</v>
       </c>
       <c r="C18" t="n">
-        <v>32.12551089741401</v>
+        <v>31.87608706623783</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8455108974140089</v>
+        <v>0.5960870662378248</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7148886776458426</v>
+        <v>0.3553197905360169</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.38</v>
       </c>
       <c r="C19" t="n">
-        <v>31.70430067352617</v>
+        <v>31.75736373247843</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3243006735261744</v>
+        <v>0.3773637324784325</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1051709268495304</v>
+        <v>0.1424033865900539</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.58</v>
       </c>
       <c r="C20" t="n">
-        <v>32.01831504160815</v>
+        <v>31.78453762319889</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4383150416081492</v>
+        <v>0.2045376231988953</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1921200756999535</v>
+        <v>0.04183563930385329</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.65</v>
       </c>
       <c r="C21" t="n">
-        <v>31.6557620332591</v>
+        <v>31.58478600176932</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005762033259099297</v>
+        <v>-0.06521399823067853</v>
       </c>
       <c r="E21" t="n">
-        <v>3.320102727896647e-05</v>
+        <v>0.004252865565230942</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.88</v>
       </c>
       <c r="C22" t="n">
-        <v>32.55625313419729</v>
+        <v>32.29400304099783</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6762531341972924</v>
+        <v>0.4140030409978301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4573183015116611</v>
+        <v>0.171398517955451</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.54997491613913</v>
+        <v>32.21686894730108</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2699749161391267</v>
+        <v>-0.06313105269892105</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0728864553443285</v>
+        <v>0.003985529814873947</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.45</v>
       </c>
       <c r="C24" t="n">
-        <v>32.25129507345323</v>
+        <v>32.21147663247182</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1987049265467746</v>
+        <v>-0.238523367528181</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0394836478339591</v>
+        <v>0.05689339685698373</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.85</v>
       </c>
       <c r="C25" t="n">
-        <v>33.63366098406425</v>
+        <v>33.33814588653443</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7836609840642481</v>
+        <v>0.4881458865344328</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6141245379445457</v>
+        <v>0.2382864065404874</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.9</v>
       </c>
       <c r="C26" t="n">
-        <v>32.68773393513963</v>
+        <v>32.85553674518892</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2122660648603656</v>
+        <v>-0.04446325481107749</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04505688229130493</v>
+        <v>0.001976981028394806</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.1</v>
       </c>
       <c r="C27" t="n">
-        <v>32.92426366070559</v>
+        <v>33.19043081687309</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.17573633929441</v>
+        <v>0.09043081687308785</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0308832609486</v>
+        <v>0.008177732640333951</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.4</v>
       </c>
       <c r="C28" t="n">
-        <v>33.38485988760078</v>
+        <v>33.45193820743058</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01514011239921587</v>
+        <v>0.05193820743058097</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00022922300346089</v>
+        <v>0.002697577391102057</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.7</v>
       </c>
       <c r="C29" t="n">
-        <v>33.76704250188487</v>
+        <v>33.83868790987707</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06704250188487038</v>
+        <v>0.1386879098770706</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004494697058982848</v>
+        <v>0.01923433634607045</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.1</v>
       </c>
       <c r="C30" t="n">
-        <v>34.42621061011622</v>
+        <v>34.42059510899335</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3262106101162203</v>
+        <v>0.3205951089933521</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1064133621523967</v>
+        <v>0.1027812239104593</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.4</v>
       </c>
       <c r="C31" t="n">
-        <v>34.48575269814877</v>
+        <v>34.6242020421877</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08575269814877373</v>
+        <v>0.2242020421877058</v>
       </c>
       <c r="E31" t="n">
-        <v>0.007353525239794702</v>
+        <v>0.05026655572113781</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.9</v>
       </c>
       <c r="C32" t="n">
-        <v>35.01197026628174</v>
+        <v>34.90418171951596</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1119702662817446</v>
+        <v>0.004181719515962357</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01253734053120478</v>
+        <v>1.748677811018045e-05</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.3</v>
       </c>
       <c r="C33" t="n">
-        <v>35.0747884907683</v>
+        <v>35.05932066036928</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2252115092316984</v>
+        <v>-0.2406793396307165</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05072022389041938</v>
+        <v>0.0579265445250778</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.7</v>
       </c>
       <c r="C34" t="n">
-        <v>35.43834716810733</v>
+        <v>35.31521198156396</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2616528318926683</v>
+        <v>-0.3847880184360406</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06846220443745293</v>
+        <v>0.1480618191319347</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.65069800646503</v>
+        <v>35.4186358811404</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.6493019935349693</v>
+        <v>-0.8813641188596009</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4215930788084853</v>
+        <v>0.7768027100131606</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.8</v>
       </c>
       <c r="C36" t="n">
-        <v>36.08379325786624</v>
+        <v>35.87308093255112</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.7162067421337568</v>
+        <v>-0.9269190674488783</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5129520974778496</v>
+        <v>0.8591789576002982</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.82042427363491</v>
+        <v>36.63601767750156</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4795757263650913</v>
+        <v>-0.663982322498434</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2299928773186049</v>
+        <v>0.4408725245904144</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.9</v>
       </c>
       <c r="C38" t="n">
-        <v>38.2022152009615</v>
+        <v>37.69176953048242</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3022152009615056</v>
+        <v>-0.2082304695175736</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0913340276922032</v>
+        <v>0.04335992843550916</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.5</v>
       </c>
       <c r="C39" t="n">
-        <v>38.54488735553488</v>
+        <v>38.2548334071515</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04488735553487544</v>
+        <v>-0.2451665928484985</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002014874686914313</v>
+        <v>0.06010665824894144</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.9</v>
       </c>
       <c r="C40" t="n">
-        <v>38.9232925618563</v>
+        <v>38.96210787388149</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02329256185630157</v>
+        <v>0.06210787388148731</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0005425434378296351</v>
+        <v>0.003857387998078733</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.4</v>
       </c>
       <c r="C41" t="n">
-        <v>39.18492527594462</v>
+        <v>39.32220219551099</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.215074724055377</v>
+        <v>-0.07779780448900908</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04625713692749655</v>
+        <v>0.006052498383310081</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.9</v>
       </c>
       <c r="C42" t="n">
-        <v>40.48918849674822</v>
+        <v>39.6517516399588</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5891884967482213</v>
+        <v>-0.2482483600412024</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3471430847004288</v>
+        <v>0.06162724826314647</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.1</v>
       </c>
       <c r="C43" t="n">
-        <v>40.07497914666638</v>
+        <v>39.94367547814383</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.02502085333362203</v>
+        <v>-0.1563245218561704</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0006260431015426245</v>
+        <v>0.0244373561335603</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.6</v>
       </c>
       <c r="C44" t="n">
-        <v>41.00696585928799</v>
+        <v>39.99272047860381</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4069658592879861</v>
+        <v>-0.6072795213961868</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1656212106260089</v>
+        <v>0.3687884171071817</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.9</v>
       </c>
       <c r="C45" t="n">
-        <v>41.00589054627245</v>
+        <v>40.95647619100823</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1058905462724482</v>
+        <v>0.05647619100822965</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01121280778987749</v>
+        <v>0.00318956015079804</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.2</v>
       </c>
       <c r="C46" t="n">
-        <v>41.96942117783217</v>
+        <v>42.07479925553758</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7694211778321716</v>
+        <v>0.8747992555375816</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5920089488966461</v>
+        <v>0.7652737374891071</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.5</v>
       </c>
       <c r="C47" t="n">
-        <v>41.29084426028793</v>
+        <v>41.50547255927228</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2091557397120667</v>
+        <v>0.005472559272284627</v>
       </c>
       <c r="E47" t="n">
-        <v>0.04374612345450179</v>
+        <v>2.994890498866845e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.8</v>
       </c>
       <c r="C48" t="n">
-        <v>41.11297919396689</v>
+        <v>41.44029874189511</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.6870208060331038</v>
+        <v>-0.3597012581048915</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4719975879223756</v>
+        <v>0.1293849950822418</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.2</v>
       </c>
       <c r="C49" t="n">
-        <v>42.04974543499112</v>
+        <v>42.92540009526662</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1502545650088862</v>
+        <v>0.7254000952666217</v>
       </c>
       <c r="E49" t="n">
-        <v>0.02257643430600962</v>
+        <v>0.5262052982128239</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.7</v>
       </c>
       <c r="C50" t="n">
-        <v>42.78179685459305</v>
+        <v>43.29288153393431</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08179685459304409</v>
+        <v>0.5928815339343032</v>
       </c>
       <c r="E50" t="n">
-        <v>0.006690725421315598</v>
+        <v>0.3515085132802923</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>43.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.32596037961508</v>
+        <v>44.37387726409188</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.3740396203849272</v>
+        <v>0.6738772640918782</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1399056376177005</v>
+        <v>0.454110567059955</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.3290915639538596</v>
+        <v>-1.563933751615043</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>8.384676800139479</v>
+        <v>10.05486886847449</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1676935360027896</v>
+        <v>0.2010973773694899</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_8.xlsx
+++ b/full/sliding_window_results_window_8.xlsx
@@ -468,13 +468,13 @@
         <v>29.84</v>
       </c>
       <c r="C2" t="n">
-        <v>29.19813275579176</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6418672442082389</v>
+        <v>-29.84</v>
       </c>
       <c r="E2" t="n">
-        <v>0.411993559187479</v>
+        <v>890.4256</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>29.79716873044151</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01283126955848957</v>
+        <v>-29.81</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000164641478482621</v>
+        <v>888.6360999999999</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.92</v>
       </c>
       <c r="C4" t="n">
-        <v>30.5286003266526</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6086003266525957</v>
+        <v>-29.92</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3703943576016461</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.98</v>
       </c>
       <c r="C5" t="n">
-        <v>29.93516772358164</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04483227641836152</v>
+        <v>-29.98</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002009933008852374</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.04</v>
       </c>
       <c r="C6" t="n">
-        <v>29.71694036692574</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3230596330742621</v>
+        <v>-30.04</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1043675265220769</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.21</v>
       </c>
       <c r="C7" t="n">
-        <v>29.21751383698431</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9924861630156876</v>
+        <v>-30.21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9850287837776021</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.22</v>
       </c>
       <c r="C8" t="n">
-        <v>29.3241240967751</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8958759032249013</v>
+        <v>-30.22</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8025936339790327</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.38</v>
       </c>
       <c r="C9" t="n">
-        <v>29.85475453419238</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5252454658076218</v>
+        <v>-30.38</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2758827993514656</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.44</v>
       </c>
       <c r="C10" t="n">
-        <v>30.04723838338844</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3927616166115584</v>
+        <v>-30.44</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1542616874833248</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.48</v>
       </c>
       <c r="C11" t="n">
-        <v>30.35467439870513</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1253256012948682</v>
+        <v>-30.48</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01570650633992028</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.69</v>
       </c>
       <c r="C12" t="n">
-        <v>30.77233615750361</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08233615750361167</v>
+        <v>-30.69</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006779242832459549</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.75</v>
       </c>
       <c r="C13" t="n">
-        <v>30.79093178361333</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04093178361332761</v>
+        <v>-30.75</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001675410909768275</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.94</v>
       </c>
       <c r="C14" t="n">
-        <v>31.42058431744694</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4805843174469402</v>
+        <v>-30.94</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2309612861759414</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.95</v>
       </c>
       <c r="C15" t="n">
-        <v>30.76915338057381</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1808466194261911</v>
+        <v>-30.95</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03270549975788159</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.02</v>
       </c>
       <c r="C16" t="n">
-        <v>31.4873906887731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4673906887731043</v>
+        <v>-31.02</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2184540559517968</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.12</v>
       </c>
       <c r="C17" t="n">
-        <v>31.52197990811406</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4019799081140576</v>
+        <v>-31.12</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1615878465273862</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.28</v>
       </c>
       <c r="C18" t="n">
-        <v>31.87608706623783</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5960870662378248</v>
+        <v>-31.28</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3553197905360169</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.38</v>
       </c>
       <c r="C19" t="n">
-        <v>31.75736373247843</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3773637324784325</v>
+        <v>-31.38</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1424033865900539</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.58</v>
       </c>
       <c r="C20" t="n">
-        <v>31.78453762319889</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2045376231988953</v>
+        <v>-31.58</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04183563930385329</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.65</v>
       </c>
       <c r="C21" t="n">
-        <v>31.58478600176932</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06521399823067853</v>
+        <v>-31.65</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004252865565230942</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.88</v>
       </c>
       <c r="C22" t="n">
-        <v>32.29400304099783</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4140030409978301</v>
+        <v>-31.88</v>
       </c>
       <c r="E22" t="n">
-        <v>0.171398517955451</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.21686894730108</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.06313105269892105</v>
+        <v>-32.28</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003985529814873947</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.45</v>
       </c>
       <c r="C24" t="n">
-        <v>32.21147663247182</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.238523367528181</v>
+        <v>-32.45</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05689339685698373</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.85</v>
       </c>
       <c r="C25" t="n">
-        <v>33.33814588653443</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4881458865344328</v>
+        <v>-32.85</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2382864065404874</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.9</v>
       </c>
       <c r="C26" t="n">
-        <v>32.85553674518892</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.04446325481107749</v>
+        <v>-32.9</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001976981028394806</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.1</v>
       </c>
       <c r="C27" t="n">
-        <v>33.19043081687309</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09043081687308785</v>
+        <v>-33.1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008177732640333951</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.4</v>
       </c>
       <c r="C28" t="n">
-        <v>33.45193820743058</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05193820743058097</v>
+        <v>-33.4</v>
       </c>
       <c r="E28" t="n">
-        <v>0.002697577391102057</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.7</v>
       </c>
       <c r="C29" t="n">
-        <v>33.83868790987707</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1386879098770706</v>
+        <v>-33.7</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01923433634607045</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.1</v>
       </c>
       <c r="C30" t="n">
-        <v>34.42059510899335</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3205951089933521</v>
+        <v>-34.1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1027812239104593</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.4</v>
       </c>
       <c r="C31" t="n">
-        <v>34.6242020421877</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2242020421877058</v>
+        <v>-34.4</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05026655572113781</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.9</v>
       </c>
       <c r="C32" t="n">
-        <v>34.90418171951596</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004181719515962357</v>
+        <v>-34.9</v>
       </c>
       <c r="E32" t="n">
-        <v>1.748677811018045e-05</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.3</v>
       </c>
       <c r="C33" t="n">
-        <v>35.05932066036928</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2406793396307165</v>
+        <v>-35.3</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0579265445250778</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.7</v>
       </c>
       <c r="C34" t="n">
-        <v>35.31521198156396</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3847880184360406</v>
+        <v>-35.7</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1480618191319347</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.3</v>
       </c>
       <c r="C35" t="n">
-        <v>35.4186358811404</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.8813641188596009</v>
+        <v>-36.3</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7768027100131606</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.8</v>
       </c>
       <c r="C36" t="n">
-        <v>35.87308093255112</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9269190674488783</v>
+        <v>-36.8</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8591789576002982</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.3</v>
       </c>
       <c r="C37" t="n">
-        <v>36.63601767750156</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.663982322498434</v>
+        <v>-37.3</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4408725245904144</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.9</v>
       </c>
       <c r="C38" t="n">
-        <v>37.69176953048242</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2082304695175736</v>
+        <v>-37.9</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04335992843550916</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.5</v>
       </c>
       <c r="C39" t="n">
-        <v>38.2548334071515</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2451665928484985</v>
+        <v>-38.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06010665824894144</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.9</v>
       </c>
       <c r="C40" t="n">
-        <v>38.96210787388149</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06210787388148731</v>
+        <v>-38.9</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003857387998078733</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.4</v>
       </c>
       <c r="C41" t="n">
-        <v>39.32220219551099</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.07779780448900908</v>
+        <v>-39.4</v>
       </c>
       <c r="E41" t="n">
-        <v>0.006052498383310081</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.9</v>
       </c>
       <c r="C42" t="n">
-        <v>39.6517516399588</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2482483600412024</v>
+        <v>-39.9</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06162724826314647</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.1</v>
       </c>
       <c r="C43" t="n">
-        <v>39.94367547814383</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1563245218561704</v>
+        <v>-40.1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0244373561335603</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.6</v>
       </c>
       <c r="C44" t="n">
-        <v>39.99272047860381</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.6072795213961868</v>
+        <v>-40.6</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3687884171071817</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.9</v>
       </c>
       <c r="C45" t="n">
-        <v>40.95647619100823</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05647619100822965</v>
+        <v>-40.9</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00318956015079804</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.2</v>
       </c>
       <c r="C46" t="n">
-        <v>42.07479925553758</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8747992555375816</v>
+        <v>-41.2</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7652737374891071</v>
+        <v>1697.44</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.5</v>
       </c>
       <c r="C47" t="n">
-        <v>41.50547255927228</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005472559272284627</v>
+        <v>-41.5</v>
       </c>
       <c r="E47" t="n">
-        <v>2.994890498866845e-05</v>
+        <v>1722.25</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.8</v>
       </c>
       <c r="C48" t="n">
-        <v>41.44029874189511</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3597012581048915</v>
+        <v>-41.8</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1293849950822418</v>
+        <v>1747.24</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.2</v>
       </c>
       <c r="C49" t="n">
-        <v>42.92540009526662</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7254000952666217</v>
+        <v>-42.2</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5262052982128239</v>
+        <v>1780.84</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.7</v>
       </c>
       <c r="C50" t="n">
-        <v>43.29288153393431</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5928815339343032</v>
+        <v>-42.7</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3515085132802923</v>
+        <v>1823.29</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>43.7</v>
       </c>
       <c r="C51" t="n">
-        <v>44.37387726409188</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6738772640918782</v>
+        <v>-43.7</v>
       </c>
       <c r="E51" t="n">
-        <v>0.454110567059955</v>
+        <v>1909.69</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.563933751615043</v>
+        <v>-1729.34</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>10.05486886847449</v>
+        <v>60729.29000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2010973773694899</v>
+        <v>1214.5858</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_8.xlsx
+++ b/full/sliding_window_results_window_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.230795860290527</v>
+        <v>29.84</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.229853391647339</v>
+        <v>29.84429740905762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0009424686431884766</v>
+        <v>0.004297409057613777</v>
       </c>
       <c r="E2" t="n">
-        <v>8.882471433935279e-07</v>
+        <v>1.846772460846093e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.231286525726318</v>
+        <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.229390859603882</v>
+        <v>29.74084281921387</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001895666122436523</v>
+        <v>-0.06915718078613509</v>
       </c>
       <c r="E3" t="n">
-        <v>3.593549990910105e-06</v>
+        <v>0.004782715654286172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.217067003250122</v>
+        <v>29.97628593444824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01242005825042725</v>
+        <v>0.05628593444824048</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001542578538646922</v>
+        <v>0.003168106416711625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.221759796142578</v>
+        <v>30.0146312713623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006745696067810059</v>
+        <v>0.03463127136230071</v>
       </c>
       <c r="E5" t="n">
-        <v>4.550441371975467e-05</v>
+        <v>0.001199324956169309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.22650933265686</v>
+        <v>30.02547264099121</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001014590263366699</v>
+        <v>-0.0145273590087811</v>
       </c>
       <c r="E6" t="n">
-        <v>1.029393388307653e-06</v>
+        <v>0.0002110441597700135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.224742889404297</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.22297191619873</v>
+        <v>30.09674644470215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001770973205566406</v>
+        <v>-0.1132535552978595</v>
       </c>
       <c r="E7" t="n">
-        <v>3.136346094834153e-06</v>
+        <v>0.01282636778760532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.224579334259033</v>
+        <v>30.22</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.234834432601929</v>
+        <v>30.10631370544434</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01025509834289551</v>
+        <v>-0.1136862945556629</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001051670406013727</v>
+        <v>0.01292457356979695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.221961855888367</v>
+        <v>30.38</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.221897482872009</v>
+        <v>30.37908744812012</v>
       </c>
       <c r="D9" t="n">
-        <v>6.437301635742188e-05</v>
+        <v>-0.000912551879878265</v>
       </c>
       <c r="E9" t="n">
-        <v>4.143885234952904e-09</v>
+        <v>8.327509334693554e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.220980286598206</v>
+        <v>30.44</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.229278802871704</v>
+        <v>30.48676872253418</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.008298516273498535</v>
+        <v>0.04676872253418196</v>
       </c>
       <c r="E10" t="n">
-        <v>6.886537448735908e-05</v>
+        <v>0.0021873134074793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.220325946807861</v>
+        <v>30.48</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.225587368011475</v>
+        <v>30.55161094665527</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.005261421203613281</v>
+        <v>0.07161094665526946</v>
       </c>
       <c r="E11" t="n">
-        <v>2.768255217233673e-05</v>
+        <v>0.005128127680863848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.216890454292297</v>
+        <v>30.69</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.211250066757202</v>
+        <v>30.71443748474121</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005640387535095215</v>
+        <v>0.02443748474121321</v>
       </c>
       <c r="E12" t="n">
-        <v>3.181397187290713e-05</v>
+        <v>0.0005971906604770285</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.78253746032715</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03253746032714844</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001058686324540759</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.90321922302246</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.03678077697753679</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0013528255550713</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.93939018249512</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.01060981750488565</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0001125682274869781</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31.05770683288574</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03770683288574617</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001421805246273588</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.2445125579834</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1245125579833939</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01550337709556803</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.27927207946777</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.0007279205322276994</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.298683012386571e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.36791038513184</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.01208961486815952</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0001461587876604236</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.53560447692871</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.04439552307128736</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001970962468773208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.6333065032959</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.01669349670410725</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0002786728322100395</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C22" t="n">
+        <v>32.08530807495117</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2053080749511764</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.04215140564015787</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32.29549789428711</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01549789428710824</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0002401847273343822</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>32.32463455200195</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.1253654479980497</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01571649555175171</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32.83902359008789</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.01097640991210369</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0001204815745585282</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32.88959121704102</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.01040878295899006</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0001083427626873619</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33.00667190551758</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.09332809448241619</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.008710133219718804</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33.36807632446289</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.03192367553711506</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.001019121059798998</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C29" t="n">
+        <v>33.6893424987793</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.01065750122070597</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0001135823322693492</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>34.16083908081055</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.06083908081055256</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.003701393753872945</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>34.57223892211914</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1722389221191349</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.02966624629276143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>34.91926956176758</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01926956176757244</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0003713160107142895</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>35.3274040222168</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.02740402221679972</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0007509804336588525</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>35.80170822143555</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.101708221435544</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01034456230758166</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>36.2434196472168</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.05658035278320028</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0032013363210714</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36.58086013793945</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.219139862060544</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.04802227914391426</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>37.2767219543457</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.02327804565429403</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0005418674094833973</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>38.11420059204102</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2142005920410099</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.04588189363071917</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C39" t="n">
+        <v>38.27453994750977</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.2254600524902344</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.05083223526889924</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38.86594772338867</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.03405227661133381</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001159557542414792</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39.41973495483398</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01973495483397869</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0003894684422991789</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>39.97382736206055</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.07382736206054119</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.005450479388818237</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>40.0130500793457</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.08694992065429119</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.007560288701787534</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>40.46186447143555</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.1381355285644474</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01908142425177927</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40.95343399047852</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.05343399047850994</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.002855191338457491</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>41.20000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>41.18429565429688</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.01570434570313495</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0002466264739635731</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C47" t="n">
+        <v>41.35696792602539</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.1430320739746094</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.02045817418547813</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>42.03554916381836</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2355491638183622</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.05548340857552964</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>42.1156120300293</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.08438796997070597</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.007121329475776772</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>42.71539688110352</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01539688110351278</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.000237063947715709</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.215909004211426</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.222145318984985</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.00623631477355957</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.889162326231599e-05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>43.75746536254883</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.05746536254883239</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.003302267892868748</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.0004428625106811523</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.0004808345111086965</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>-0.03755172729495371</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.4497287888324298</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>4.006954259239137e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.008994575776648596</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_8.xlsx
+++ b/full/sliding_window_results_window_8.xlsx
@@ -468,13 +468,13 @@
         <v>29.84</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>29.88066855575936</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.84</v>
+        <v>0.04066855575935691</v>
       </c>
       <c r="E2" t="n">
-        <v>890.4256</v>
+        <v>0.001653931427551922</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.81</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.77401489754656</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.81</v>
+        <v>-0.03598510245344144</v>
       </c>
       <c r="E3" t="n">
-        <v>888.6360999999999</v>
+        <v>0.001294927598584677</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.92</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>29.64367529096509</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.92</v>
+        <v>-0.2763247090349132</v>
       </c>
       <c r="E4" t="n">
-        <v>895.2064000000001</v>
+        <v>0.07635534482322946</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.98</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>29.9770110492835</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.98</v>
+        <v>-0.002988950716499517</v>
       </c>
       <c r="E5" t="n">
-        <v>898.8004000000001</v>
+        <v>8.933826385662973e-06</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>30.04</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30.15190796648162</v>
       </c>
       <c r="D6" t="n">
-        <v>-30.04</v>
+        <v>0.1119079664816169</v>
       </c>
       <c r="E6" t="n">
-        <v>902.4015999999999</v>
+        <v>0.0125233929620507</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.21</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.34663417843318</v>
       </c>
       <c r="D7" t="n">
-        <v>-30.21</v>
+        <v>0.1366341784331802</v>
       </c>
       <c r="E7" t="n">
-        <v>912.6441000000001</v>
+        <v>0.01866889871611011</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.22</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.62369824705883</v>
       </c>
       <c r="D8" t="n">
-        <v>-30.22</v>
+        <v>0.4036982470588342</v>
       </c>
       <c r="E8" t="n">
-        <v>913.2483999999999</v>
+        <v>0.1629722746783755</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.38</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>30.31539290832943</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.38</v>
+        <v>-0.06460709167056677</v>
       </c>
       <c r="E9" t="n">
-        <v>922.9444</v>
+        <v>0.004174076294129019</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.44</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.48004311243192</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.44</v>
+        <v>0.04004311243192049</v>
       </c>
       <c r="E10" t="n">
-        <v>926.5936</v>
+        <v>0.001603450853235425</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.48</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.62951007234524</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.48</v>
+        <v>0.1495100723452403</v>
       </c>
       <c r="E11" t="n">
-        <v>929.0304</v>
+        <v>0.02235326173267898</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.69</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30.69147273849411</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.69</v>
+        <v>0.001472738494104675</v>
       </c>
       <c r="E12" t="n">
-        <v>941.8761000000001</v>
+        <v>2.168958672017706e-06</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.75</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.33463104955399</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.75</v>
+        <v>-0.415368950446009</v>
       </c>
       <c r="E13" t="n">
-        <v>945.5625</v>
+        <v>0.172531364994619</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.94</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>30.37174292734279</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.94</v>
+        <v>-0.5682570726572109</v>
       </c>
       <c r="E14" t="n">
-        <v>957.2836000000001</v>
+        <v>0.3229161006249427</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.95</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>30.76360678343317</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.95</v>
+        <v>-0.1863932165668274</v>
       </c>
       <c r="E15" t="n">
-        <v>957.9024999999999</v>
+        <v>0.03474243118212822</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>31.02</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>31.06347961641817</v>
       </c>
       <c r="D16" t="n">
-        <v>-31.02</v>
+        <v>0.04347961641817122</v>
       </c>
       <c r="E16" t="n">
-        <v>962.2404</v>
+        <v>0.001890477043871304</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.12</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>31.37022274551597</v>
       </c>
       <c r="D17" t="n">
-        <v>-31.12</v>
+        <v>0.2502227455159662</v>
       </c>
       <c r="E17" t="n">
-        <v>968.4544000000001</v>
+        <v>0.062611422373548</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.28</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>31.36086790810678</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.28</v>
+        <v>0.08086790810678224</v>
       </c>
       <c r="E18" t="n">
-        <v>978.4384000000001</v>
+        <v>0.006539618561566977</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.38</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.69297716748968</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.38</v>
+        <v>0.3129771674896844</v>
       </c>
       <c r="E19" t="n">
-        <v>984.7044</v>
+        <v>0.09795470736986596</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.58</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>32.00502054386315</v>
       </c>
       <c r="D20" t="n">
-        <v>-31.58</v>
+        <v>0.4250205438631482</v>
       </c>
       <c r="E20" t="n">
-        <v>997.2963999999999</v>
+        <v>0.1806424627057263</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.65</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>31.95227342423743</v>
       </c>
       <c r="D21" t="n">
-        <v>-31.65</v>
+        <v>0.302273424237427</v>
       </c>
       <c r="E21" t="n">
-        <v>1001.7225</v>
+        <v>0.0913692230002195</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.88</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.60719355010644</v>
       </c>
       <c r="D22" t="n">
-        <v>-31.88</v>
+        <v>-0.2728064498935616</v>
       </c>
       <c r="E22" t="n">
-        <v>1016.3344</v>
+        <v>0.07442335910352835</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>32.28</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>32.13576646462457</v>
       </c>
       <c r="D23" t="n">
-        <v>-32.28</v>
+        <v>-0.1442335353754345</v>
       </c>
       <c r="E23" t="n">
-        <v>1041.9984</v>
+        <v>0.02080331272689671</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.45</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>32.14611717632918</v>
       </c>
       <c r="D24" t="n">
-        <v>-32.45</v>
+        <v>-0.3038828236708184</v>
       </c>
       <c r="E24" t="n">
-        <v>1053.0025</v>
+        <v>0.09234477052214972</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.85</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>33.19851626968185</v>
       </c>
       <c r="D25" t="n">
-        <v>-32.85</v>
+        <v>0.3485162696818449</v>
       </c>
       <c r="E25" t="n">
-        <v>1079.1225</v>
+        <v>0.1214635902329484</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.9</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>32.87005672226958</v>
       </c>
       <c r="D26" t="n">
-        <v>-32.9</v>
+        <v>-0.02994327773041761</v>
       </c>
       <c r="E26" t="n">
-        <v>1082.41</v>
+        <v>0.0008965998812409229</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>33.1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>33.09926301179274</v>
       </c>
       <c r="D27" t="n">
-        <v>-33.1</v>
+        <v>-0.000736988207265199</v>
       </c>
       <c r="E27" t="n">
-        <v>1095.61</v>
+        <v>5.431516176479719e-07</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.4</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.11066246943691</v>
       </c>
       <c r="D28" t="n">
-        <v>-33.4</v>
+        <v>-0.2893375305630883</v>
       </c>
       <c r="E28" t="n">
-        <v>1115.56</v>
+        <v>0.08371620659234606</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.7</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>33.73068155870988</v>
       </c>
       <c r="D29" t="n">
-        <v>-33.7</v>
+        <v>0.03068155870987965</v>
       </c>
       <c r="E29" t="n">
-        <v>1135.69</v>
+        <v>0.000941358044867792</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>34.1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>34.50721488327389</v>
       </c>
       <c r="D30" t="n">
-        <v>-34.1</v>
+        <v>0.4072148832738876</v>
       </c>
       <c r="E30" t="n">
-        <v>1162.81</v>
+        <v>0.1658239611597659</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.4</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>34.51580185188255</v>
       </c>
       <c r="D31" t="n">
-        <v>-34.4</v>
+        <v>0.1158018518825514</v>
       </c>
       <c r="E31" t="n">
-        <v>1183.36</v>
+        <v>0.01341006889942838</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.9</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>35.03799556991351</v>
       </c>
       <c r="D32" t="n">
-        <v>-34.9</v>
+        <v>0.1379955699135138</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.01</v>
+        <v>0.01904277731575548</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>35.3</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>34.87663432728867</v>
       </c>
       <c r="D33" t="n">
-        <v>-35.3</v>
+        <v>-0.4233656727113271</v>
       </c>
       <c r="E33" t="n">
-        <v>1246.09</v>
+        <v>0.1792384928303145</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.7</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>35.17898363211293</v>
       </c>
       <c r="D34" t="n">
-        <v>-35.7</v>
+        <v>-0.5210163678870714</v>
       </c>
       <c r="E34" t="n">
-        <v>1274.49</v>
+        <v>0.2714580556062361</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>36.3</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>35.86378850647009</v>
       </c>
       <c r="D35" t="n">
-        <v>-36.3</v>
+        <v>-0.4362114935299033</v>
       </c>
       <c r="E35" t="n">
-        <v>1317.69</v>
+        <v>0.1902804670875889</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.8</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>36.26778913958069</v>
       </c>
       <c r="D36" t="n">
-        <v>-36.8</v>
+        <v>-0.5322108604193048</v>
       </c>
       <c r="E36" t="n">
-        <v>1354.24</v>
+        <v>0.2832483999482567</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>37.3</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.30114710264916</v>
       </c>
       <c r="D37" t="n">
-        <v>-37.3</v>
+        <v>0.001147102649163401</v>
       </c>
       <c r="E37" t="n">
-        <v>1391.29</v>
+        <v>1.315844487717692e-06</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.9</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>37.8392741502586</v>
       </c>
       <c r="D38" t="n">
-        <v>-37.9</v>
+        <v>-0.06072584974140227</v>
       </c>
       <c r="E38" t="n">
-        <v>1436.41</v>
+        <v>0.003687628826815366</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>38.5</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>38.43957258246311</v>
       </c>
       <c r="D39" t="n">
-        <v>-38.5</v>
+        <v>-0.06042741753689285</v>
       </c>
       <c r="E39" t="n">
-        <v>1482.25</v>
+        <v>0.003651472790177985</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.9</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>39.34244782130198</v>
       </c>
       <c r="D40" t="n">
-        <v>-38.9</v>
+        <v>0.4424478213019825</v>
       </c>
       <c r="E40" t="n">
-        <v>1513.21</v>
+        <v>0.195760074574871</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>39.4</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>40.07310150521455</v>
       </c>
       <c r="D41" t="n">
-        <v>-39.4</v>
+        <v>0.6731015052145466</v>
       </c>
       <c r="E41" t="n">
-        <v>1552.36</v>
+        <v>0.4530656363220883</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.9</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>40.34373512892738</v>
       </c>
       <c r="D42" t="n">
-        <v>-39.9</v>
+        <v>0.4437351289273792</v>
       </c>
       <c r="E42" t="n">
-        <v>1592.01</v>
+        <v>0.1969008646441978</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>40.1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>40.02935357895179</v>
       </c>
       <c r="D43" t="n">
-        <v>-40.1</v>
+        <v>-0.07064642104820962</v>
       </c>
       <c r="E43" t="n">
-        <v>1608.01</v>
+        <v>0.004990916806920915</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.6</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.19614329238238</v>
       </c>
       <c r="D44" t="n">
-        <v>-40.6</v>
+        <v>0.5961432923823793</v>
       </c>
       <c r="E44" t="n">
-        <v>1648.36</v>
+        <v>0.355386825052503</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.9</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>41.43468154294521</v>
       </c>
       <c r="D45" t="n">
-        <v>-40.9</v>
+        <v>0.534681542945215</v>
       </c>
       <c r="E45" t="n">
-        <v>1672.81</v>
+        <v>0.2858843523662757</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>41.2</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.23756675007412</v>
       </c>
       <c r="D46" t="n">
-        <v>-41.2</v>
+        <v>0.03756675007411303</v>
       </c>
       <c r="E46" t="n">
-        <v>1697.44</v>
+        <v>0.001411260711130871</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.5</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>41.01664378554329</v>
       </c>
       <c r="D47" t="n">
-        <v>-41.5</v>
+        <v>-0.4833562144567125</v>
       </c>
       <c r="E47" t="n">
-        <v>1722.25</v>
+        <v>0.2336332300539234</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.8</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>41.4105672201997</v>
       </c>
       <c r="D48" t="n">
-        <v>-41.8</v>
+        <v>-0.3894327798002948</v>
       </c>
       <c r="E48" t="n">
-        <v>1747.24</v>
+        <v>0.1516578899829849</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>42.2</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>41.92653814877664</v>
       </c>
       <c r="D49" t="n">
-        <v>-42.2</v>
+        <v>-0.2734618512233666</v>
       </c>
       <c r="E49" t="n">
-        <v>1780.84</v>
+        <v>0.07478138407451071</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.7</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>42.23666827446134</v>
       </c>
       <c r="D50" t="n">
-        <v>-42.7</v>
+        <v>-0.4633317255386586</v>
       </c>
       <c r="E50" t="n">
-        <v>1823.29</v>
+        <v>0.2146762878906309</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>43.7</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>43.37985615845385</v>
       </c>
       <c r="D51" t="n">
-        <v>-43.7</v>
+        <v>-0.3201438415461553</v>
       </c>
       <c r="E51" t="n">
-        <v>1909.69</v>
+        <v>0.1024920792799298</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1729.34</v>
+        <v>-0.5573866408334638</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>60729.29000000001</v>
+        <v>5.067881652051883</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1214.5858</v>
+        <v>0.1013576330410376</v>
       </c>
     </row>
   </sheetData>
